--- a/Data/Tables/ShopItemDefine.xlsx
+++ b/Data/Tables/ShopItemDefine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>商店ID</t>
   </si>
@@ -37,52 +37,55 @@
     <t>shopItemID</t>
   </si>
   <si>
+    <t>与左边保持一致</t>
+  </si>
+  <si>
     <t>对应物品id</t>
   </si>
   <si>
     <t>单次售卖数量</t>
   </si>
   <si>
-    <t>刷新时间（时间点）</t>
-  </si>
-  <si>
     <t>价格</t>
   </si>
   <si>
     <t>在商店中的描述</t>
   </si>
   <si>
-    <t>用于复制的模板无任何作用</t>
+    <t>能否被购买</t>
   </si>
   <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>Float</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
+    <t>Boolean</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
     <t>Key2</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>ItemId</t>
   </si>
   <si>
     <t>SellCount</t>
   </si>
   <si>
-    <t>RefreshTime</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>不是个好东西</t>
@@ -797,16 +800,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G14" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:G14" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H14" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H14" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="2" name="Key2"/>
+    <tableColumn id="7" name="Id"/>
     <tableColumn id="4" name="ItemId"/>
     <tableColumn id="5" name="SellCount"/>
-    <tableColumn id="7" name="RefreshTime"/>
     <tableColumn id="3" name="Price"/>
-    <tableColumn id="6" name="Description"/>
+    <tableColumn id="8" name="Description"/>
+    <tableColumn id="6" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1062,23 +1066,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.1851851851852" customWidth="1"/>
     <col min="2" max="2" width="12.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="18.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="21.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="18.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="37.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="11.9074074074074" customWidth="1"/>
+    <col min="10" max="10" width="11.9074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.4" spans="1:11">
+    <row r="1" ht="26.4" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,14 +1103,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -1117,20 +1121,23 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1152,8 +1159,11 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1164,19 +1174,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
         <v>5</v>
-      </c>
-      <c r="E4" s="4">
-        <v>6</v>
       </c>
       <c r="F4" s="4">
         <v>100</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>2</v>
@@ -1184,14 +1197,15 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>7</v>
-      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>3</v>
@@ -1199,14 +1213,15 @@
       <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
-        <v>8</v>
-      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="4">
         <v>4</v>
@@ -1214,14 +1229,15 @@
       <c r="C7" s="4">
         <v>4</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
-        <v>9</v>
-      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>5</v>
@@ -1229,14 +1245,15 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>6</v>
@@ -1244,14 +1261,15 @@
       <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4">
-        <v>11</v>
-      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -1261,14 +1279,15 @@
       <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
-        <v>12</v>
-      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -1278,14 +1297,15 @@
       <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4">
-        <v>13</v>
-      </c>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -1295,14 +1315,15 @@
       <c r="C12" s="4">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4">
-        <v>14</v>
-      </c>
+      <c r="D12" s="4">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>5</v>
       </c>
@@ -1312,14 +1333,15 @@
       <c r="C13" s="4">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>15</v>
-      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>6</v>
       </c>
@@ -1329,12 +1351,13 @@
       <c r="C14" s="4">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4">
-        <v>16</v>
-      </c>
+      <c r="D14" s="4">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Tables/ShopItemDefine.xlsx
+++ b/Data/Tables/ShopItemDefine.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>商店ID</t>
   </si>
@@ -88,7 +88,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>不是个好东西</t>
+    <t>好！好！好！</t>
   </si>
 </sst>
 </file>
@@ -800,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H14" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H14" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:H16" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:H16" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Key"/>
     <tableColumn id="2" name="Key2"/>
@@ -1066,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1200,10 +1200,18 @@
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>150</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4"/>
@@ -1216,10 +1224,18 @@
       <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4"/>
@@ -1232,10 +1248,18 @@
       <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4"/>
@@ -1248,10 +1272,18 @@
       <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4"/>
@@ -1264,15 +1296,21 @@
       <c r="D9" s="4">
         <v>6</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
-        <v>2</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -1282,15 +1320,21 @@
       <c r="D10" s="4">
         <v>7</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
-        <v>3</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -1300,24 +1344,26 @@
       <c r="D11" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>200</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -1325,17 +1371,11 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4">
-        <v>10</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -1343,21 +1383,39 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
